--- a/biology/Zoologie/Darchenia_bernadettae/Darchenia_bernadettae.xlsx
+++ b/biology/Zoologie/Darchenia_bernadettae/Darchenia_bernadettae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Darchenia bernadettae, unique représentant du genre Darchenia, est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'origine de cette espèce est incertaine[1] : pour Vachon, elle est endémique du Yucatán au Mexique[2] mais pour Lourenço, cette espèce serait africaine probablement du Gabon[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'origine de cette espèce est incertaine : pour Vachon, elle est endémique du Yucatán au Mexique mais pour Lourenço, cette espèce serait africaine probablement du Gabon.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Bernadette Darchen[2].
-Ce genre est nommé en l'honneur de Bernadette et Roger Darchen[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Bernadette Darchen.
+Ce genre est nommé en l'honneur de Bernadette et Roger Darchen.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vachon, 1977 : « Contribution à l'étude des scorpions Buthidae du nouveau monde. I. Complément à la connaissance de Microtityus rickyi Kj. W. 1956 de l'ile de la Trinité. II. Description d'une nouvelle espèce et d'un nouveau genre mexicains: Darchenia bernadettae. III. Clé de détermination des genres de Buthidae du nouveau monde. » Acta Biologica Venezuelica, vol. 9, no 3, p. 283–302.</t>
         </is>
